--- a/docs/Plantillas/Plantilla_Rpto_Operaciones_InformeDetalladoCombustible.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_Operaciones_InformeDetalladoCombustible.xlsx
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,9 +133,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,26 +465,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="11"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>0</v>
@@ -1719,7 +1717,7 @@
   <mergeCells count="3">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
